--- a/testData/UsersList.xlsx
+++ b/testData/UsersList.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="469">
   <si>
     <t>UserName</t>
   </si>
@@ -959,13 +960,481 @@
   </si>
   <si>
     <t>Created</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>Ghosh</t>
+  </si>
+  <si>
+    <t>Hills</t>
+  </si>
+  <si>
+    <t>Irwin</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Nalty</t>
+  </si>
+  <si>
+    <t>Ochoa</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Reily</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>Usman</t>
+  </si>
+  <si>
+    <t>Valdo</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Xiang</t>
+  </si>
+  <si>
+    <t>Yakub</t>
+  </si>
+  <si>
+    <t>Zafar</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Kimberly</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Melissa</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Debra</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Helen</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Judith</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Cheryl</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Abigail</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Gloria</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
+    <t>Kathryn</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Elijah</t>
+  </si>
+  <si>
+    <t>Denise</t>
+  </si>
+  <si>
+    <t>Frances</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>Marilyn</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Beverly</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Brittany</t>
+  </si>
+  <si>
+    <t>Theresa</t>
+  </si>
+  <si>
+    <t>Kayla</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>Doris</t>
+  </si>
+  <si>
+    <t>Lori</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>WebFormName</t>
+  </si>
+  <si>
+    <t>WF_AllAvailUser_Condition</t>
+  </si>
+  <si>
+    <t>Julia@rsoft.in</t>
+  </si>
+  <si>
+    <t>Grace@rsoft.in</t>
+  </si>
+  <si>
+    <t>Amber@rsoft.in</t>
+  </si>
+  <si>
+    <t>Alice@rsoft.in</t>
+  </si>
+  <si>
+    <t>Jean@rsoft.in</t>
+  </si>
+  <si>
+    <t>Denise@rsoft.in</t>
+  </si>
+  <si>
+    <t>Frances@rsoft.in</t>
+  </si>
+  <si>
+    <t>Danielle@rsoft.in</t>
+  </si>
+  <si>
+    <t>Marilyn@rsoft.in</t>
+  </si>
+  <si>
+    <t>Natalie@rsoft.in</t>
+  </si>
+  <si>
+    <t>Beverly@rsoft.in</t>
+  </si>
+  <si>
+    <t>Diana@rsoft.in</t>
+  </si>
+  <si>
+    <t>Brittany@rsoft.in</t>
+  </si>
+  <si>
+    <t>Theresa@rsoft.in</t>
+  </si>
+  <si>
+    <t>Kayla@rsoft.in</t>
+  </si>
+  <si>
+    <t>Alexis@rsoft.in</t>
+  </si>
+  <si>
+    <t>Doris@rsoft.in</t>
+  </si>
+  <si>
+    <t>Lori@rsoft.in</t>
+  </si>
+  <si>
+    <t>Condition 2</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Condition 1</t>
+  </si>
+  <si>
+    <t>UnAvailable  Users</t>
+  </si>
+  <si>
+    <t>Available User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,16 +1442,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -990,12 +1491,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD7E1E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1276,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1288,216 +1854,2377 @@
     <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>327</v>
+      </c>
+      <c r="B27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>329</v>
+      </c>
+      <c r="B29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B32" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>334</v>
+      </c>
+      <c r="B34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B35" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>336</v>
+      </c>
+      <c r="B36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>337</v>
+      </c>
+      <c r="B37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>338</v>
+      </c>
+      <c r="B38" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>339</v>
+      </c>
+      <c r="B39" t="s">
+        <v>339</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>340</v>
+      </c>
+      <c r="B40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>341</v>
+      </c>
+      <c r="B41" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>342</v>
+      </c>
+      <c r="B42" t="s">
+        <v>342</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>343</v>
+      </c>
+      <c r="B43" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>344</v>
+      </c>
+      <c r="B44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45" t="s">
+        <v>345</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>347</v>
+      </c>
+      <c r="B47" t="s">
+        <v>347</v>
+      </c>
+      <c r="C47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>348</v>
+      </c>
+      <c r="B48" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>350</v>
+      </c>
+      <c r="B50" t="s">
+        <v>350</v>
+      </c>
+      <c r="C50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>351</v>
+      </c>
+      <c r="B51" t="s">
+        <v>351</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>352</v>
+      </c>
+      <c r="B52" t="s">
+        <v>352</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>353</v>
+      </c>
+      <c r="B53" t="s">
+        <v>353</v>
+      </c>
+      <c r="C53" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>354</v>
+      </c>
+      <c r="B54" t="s">
+        <v>354</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" t="s">
+        <v>355</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>356</v>
+      </c>
+      <c r="B56" t="s">
+        <v>356</v>
+      </c>
+      <c r="C56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>357</v>
+      </c>
+      <c r="B57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>358</v>
+      </c>
+      <c r="B58" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>359</v>
+      </c>
+      <c r="B59" t="s">
+        <v>359</v>
+      </c>
+      <c r="C59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>360</v>
+      </c>
+      <c r="B60" t="s">
+        <v>360</v>
+      </c>
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>361</v>
+      </c>
+      <c r="B61" t="s">
+        <v>361</v>
+      </c>
+      <c r="C61" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>362</v>
+      </c>
+      <c r="B62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>363</v>
+      </c>
+      <c r="B63" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>364</v>
+      </c>
+      <c r="B64" t="s">
+        <v>364</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>365</v>
+      </c>
+      <c r="B65" t="s">
+        <v>365</v>
+      </c>
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" t="s">
+        <v>366</v>
+      </c>
+      <c r="C66" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>367</v>
+      </c>
+      <c r="B67" t="s">
+        <v>367</v>
+      </c>
+      <c r="C67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" t="s">
+        <v>368</v>
+      </c>
+      <c r="C68" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>369</v>
+      </c>
+      <c r="B69" t="s">
+        <v>369</v>
+      </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>370</v>
+      </c>
+      <c r="B70" t="s">
+        <v>370</v>
+      </c>
+      <c r="C70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>371</v>
+      </c>
+      <c r="B71" t="s">
+        <v>371</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>372</v>
+      </c>
+      <c r="B72" t="s">
+        <v>372</v>
+      </c>
+      <c r="C72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>373</v>
+      </c>
+      <c r="C73" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>374</v>
+      </c>
+      <c r="B74" t="s">
+        <v>374</v>
+      </c>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>375</v>
+      </c>
+      <c r="B75" t="s">
+        <v>375</v>
+      </c>
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>376</v>
+      </c>
+      <c r="B76" t="s">
+        <v>376</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>377</v>
+      </c>
+      <c r="B77" t="s">
+        <v>377</v>
+      </c>
+      <c r="C77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>378</v>
+      </c>
+      <c r="B78" t="s">
+        <v>378</v>
+      </c>
+      <c r="C78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>379</v>
+      </c>
+      <c r="B79" t="s">
+        <v>379</v>
+      </c>
+      <c r="C79" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>380</v>
+      </c>
+      <c r="B80" t="s">
+        <v>380</v>
+      </c>
+      <c r="C80" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81" t="s">
+        <v>381</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>382</v>
+      </c>
+      <c r="B82" t="s">
+        <v>382</v>
+      </c>
+      <c r="C82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>383</v>
+      </c>
+      <c r="B83" t="s">
+        <v>383</v>
+      </c>
+      <c r="C83" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>384</v>
+      </c>
+      <c r="B84" t="s">
+        <v>384</v>
+      </c>
+      <c r="C84" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>385</v>
+      </c>
+      <c r="B85" t="s">
+        <v>385</v>
+      </c>
+      <c r="C85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>386</v>
+      </c>
+      <c r="B86" t="s">
+        <v>386</v>
+      </c>
+      <c r="C86" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>387</v>
+      </c>
+      <c r="B87" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>388</v>
+      </c>
+      <c r="B88" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>389</v>
+      </c>
+      <c r="B89" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>390</v>
+      </c>
+      <c r="B90" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>391</v>
+      </c>
+      <c r="B91" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>392</v>
+      </c>
+      <c r="B92" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>256</v>
+      </c>
+      <c r="B93" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>393</v>
+      </c>
+      <c r="B94" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>394</v>
+      </c>
+      <c r="B95" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>395</v>
+      </c>
+      <c r="B96" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>397</v>
+      </c>
+      <c r="B97" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>399</v>
+      </c>
+      <c r="B98" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>400</v>
+      </c>
+      <c r="B99" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>401</v>
+      </c>
+      <c r="B100" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>402</v>
+      </c>
+      <c r="B101" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>403</v>
+      </c>
+      <c r="B102" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>405</v>
+      </c>
+      <c r="B103" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>406</v>
+      </c>
+      <c r="B104" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>407</v>
+      </c>
+      <c r="B105" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>408</v>
+      </c>
+      <c r="B106" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>409</v>
+      </c>
+      <c r="B107" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>410</v>
+      </c>
+      <c r="B108" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>412</v>
+      </c>
+      <c r="B109" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>413</v>
+      </c>
+      <c r="B110" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>414</v>
+      </c>
+      <c r="B111" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>415</v>
+      </c>
+      <c r="B112" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>416</v>
+      </c>
+      <c r="B113" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>417</v>
+      </c>
+      <c r="B114" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>418</v>
+      </c>
+      <c r="B115" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>419</v>
+      </c>
+      <c r="B116" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B117" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>422</v>
+      </c>
+      <c r="B118" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>423</v>
+      </c>
+      <c r="B119" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>424</v>
+      </c>
+      <c r="B120" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>425</v>
+      </c>
+      <c r="B121" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>426</v>
+      </c>
+      <c r="B122" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>428</v>
+      </c>
+      <c r="B123" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>429</v>
+      </c>
+      <c r="B124" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>430</v>
+      </c>
+      <c r="B125" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>431</v>
+      </c>
+      <c r="B126" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>432</v>
+      </c>
+      <c r="B127" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>433</v>
+      </c>
+      <c r="B128" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>434</v>
+      </c>
+      <c r="B129" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>436</v>
+      </c>
+      <c r="B130" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>437</v>
+      </c>
+      <c r="B131" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>438</v>
+      </c>
+      <c r="B132" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>440</v>
+      </c>
+      <c r="B133" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>441</v>
+      </c>
+      <c r="B134" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>442</v>
+      </c>
+      <c r="B135" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="15.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
+        <v>422</v>
+      </c>
+      <c r="B1" s="5" t="str">
+        <f>A1&amp;"@rsoft.in"</f>
+        <v>Julia@rsoft.in</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>423</v>
+      </c>
+      <c r="B2" s="5" t="str">
+        <f t="shared" ref="B2:B18" si="0">A2&amp;"@rsoft.in"</f>
+        <v>Grace@rsoft.in</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" t="s">
-        <v>309</v>
-      </c>
-      <c r="I2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>424</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Amber@rsoft.in</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H3" t="s">
-        <v>309</v>
-      </c>
-      <c r="I3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
+        <v>425</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Alice@rsoft.in</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" t="s">
-        <v>309</v>
-      </c>
-      <c r="I4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
+        <v>426</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Jean@rsoft.in</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
+        <v>428</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Denise@rsoft.in</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
+        <v>429</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Frances@rsoft.in</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
+        <v>430</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Danielle@rsoft.in</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
+        <v>431</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Marilyn@rsoft.in</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
+        <v>432</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Natalie@rsoft.in</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
-      </c>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Beverly@rsoft.in</v>
+      </c>
+      <c r="C11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Diana@rsoft.in</v>
+      </c>
+      <c r="C12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Brittany@rsoft.in</v>
+      </c>
+      <c r="C13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Theresa@rsoft.in</v>
+      </c>
+      <c r="C14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Kayla@rsoft.in</v>
+      </c>
+      <c r="C15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>440</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Alexis@rsoft.in</v>
+      </c>
+      <c r="C16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>441</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Doris@rsoft.in</v>
+      </c>
+      <c r="C17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>442</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Lori@rsoft.in</v>
+      </c>
+      <c r="C18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:WC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="ME1" workbookViewId="0">
+      <selection activeCell="MS2" sqref="MS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/testData/UsersList.xlsx
+++ b/testData/UsersList.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$135</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="469">
   <si>
     <t>UserName</t>
   </si>
@@ -1434,7 +1437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1455,6 +1458,13 @@
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1527,16 +1537,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1557,11 +1567,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1845,7 +1855,8 @@
   <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2481,7 +2492,7 @@
       <c r="I20" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2513,7 +2524,7 @@
       <c r="I21" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2545,7 +2556,7 @@
       <c r="I22" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2577,7 +2588,7 @@
       <c r="I23" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2609,7 +2620,7 @@
       <c r="I24" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2641,7 +2652,7 @@
       <c r="I25" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2673,7 +2684,7 @@
       <c r="I26" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2705,7 +2716,7 @@
       <c r="I27" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2737,7 +2748,7 @@
       <c r="I28" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2751,25 +2762,25 @@
       <c r="C29" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="J29" s="4" t="s">
+      <c r="D29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2783,7 +2794,7 @@
       <c r="C30" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>310</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -2801,7 +2812,7 @@
       <c r="I30" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="10" t="s">
         <v>468</v>
       </c>
     </row>
@@ -2833,7 +2844,7 @@
       <c r="I31" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="10" t="s">
         <v>468</v>
       </c>
     </row>
@@ -2865,7 +2876,7 @@
       <c r="I32" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2897,7 +2908,7 @@
       <c r="I33" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="10" t="s">
         <v>468</v>
       </c>
     </row>
@@ -2929,7 +2940,7 @@
       <c r="I34" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2961,7 +2972,7 @@
       <c r="I35" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="10" t="s">
         <v>468</v>
       </c>
     </row>
@@ -2993,7 +3004,7 @@
       <c r="I36" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -3025,177 +3036,491 @@
       <c r="I37" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>77</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>116</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>54</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>189</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B43" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>53</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>134</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B46" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>396</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B47" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C47" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C48" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B50" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B52" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>353</v>
       </c>
@@ -3205,8 +3530,29 @@
       <c r="C53" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>354</v>
       </c>
@@ -3216,8 +3562,29 @@
       <c r="C54" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D54" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -3227,8 +3594,29 @@
       <c r="C55" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D55" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>356</v>
       </c>
@@ -3238,8 +3626,29 @@
       <c r="C56" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D56" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>357</v>
       </c>
@@ -3249,8 +3658,29 @@
       <c r="C57" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D57" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>358</v>
       </c>
@@ -3260,8 +3690,29 @@
       <c r="C58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D58" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>359</v>
       </c>
@@ -3271,8 +3722,29 @@
       <c r="C59" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D59" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>360</v>
       </c>
@@ -3282,8 +3754,29 @@
       <c r="C60" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D60" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>361</v>
       </c>
@@ -3293,8 +3786,11 @@
       <c r="C61" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I61" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>362</v>
       </c>
@@ -3304,8 +3800,11 @@
       <c r="C62" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I62" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>363</v>
       </c>
@@ -3315,8 +3814,14 @@
       <c r="C63" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>310</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>364</v>
       </c>
@@ -3326,8 +3831,14 @@
       <c r="C64" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>309</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>365</v>
       </c>
@@ -3337,8 +3848,14 @@
       <c r="C65" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>310</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>366</v>
       </c>
@@ -3348,8 +3865,14 @@
       <c r="C66" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>309</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>367</v>
       </c>
@@ -3359,8 +3882,14 @@
       <c r="C67" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>309</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>368</v>
       </c>
@@ -3370,8 +3899,14 @@
       <c r="C68" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>309</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>369</v>
       </c>
@@ -3381,8 +3916,14 @@
       <c r="C69" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>309</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>370</v>
       </c>
@@ -3392,8 +3933,14 @@
       <c r="C70" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>309</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>371</v>
       </c>
@@ -3404,7 +3951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>372</v>
       </c>
@@ -3415,7 +3962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>373</v>
       </c>
@@ -3426,7 +3973,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -3437,7 +3984,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>375</v>
       </c>
@@ -3448,7 +3995,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>376</v>
       </c>
@@ -3459,7 +4006,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>377</v>
       </c>
@@ -3470,7 +4017,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>378</v>
       </c>
@@ -3481,7 +4028,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>379</v>
       </c>
@@ -3492,7 +4039,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>380</v>
       </c>
@@ -3962,6 +4509,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K135"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/testData/UsersList.xlsx
+++ b/testData/UsersList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="469">
   <si>
     <t>UserName</t>
   </si>
@@ -1852,11 +1852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70:I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3950,6 +3950,9 @@
       <c r="C71" t="s">
         <v>99</v>
       </c>
+      <c r="I71" s="13" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
@@ -3961,6 +3964,9 @@
       <c r="C72" t="s">
         <v>60</v>
       </c>
+      <c r="I72" s="13" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -3972,6 +3978,9 @@
       <c r="C73" t="s">
         <v>427</v>
       </c>
+      <c r="I73" s="13" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -3983,6 +3992,9 @@
       <c r="C74" t="s">
         <v>69</v>
       </c>
+      <c r="I74" s="13" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -3994,6 +4006,9 @@
       <c r="C75" t="s">
         <v>62</v>
       </c>
+      <c r="I75" s="13" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
@@ -4005,6 +4020,9 @@
       <c r="C76" t="s">
         <v>80</v>
       </c>
+      <c r="I76" s="13" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -4016,6 +4034,9 @@
       <c r="C77" t="s">
         <v>86</v>
       </c>
+      <c r="I77" s="13" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -4027,6 +4048,9 @@
       <c r="C78" t="s">
         <v>323</v>
       </c>
+      <c r="I78" s="13" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
@@ -4038,6 +4062,9 @@
       <c r="C79" t="s">
         <v>124</v>
       </c>
+      <c r="I79" s="13" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -4049,8 +4076,11 @@
       <c r="C80" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I80" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>381</v>
       </c>
@@ -4060,8 +4090,11 @@
       <c r="C81" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I81" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>382</v>
       </c>
@@ -4071,8 +4104,11 @@
       <c r="C82" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I82" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>383</v>
       </c>
@@ -4082,8 +4118,11 @@
       <c r="C83" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I83" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>384</v>
       </c>
@@ -4093,8 +4132,11 @@
       <c r="C84" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I84" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>385</v>
       </c>
@@ -4104,8 +4146,11 @@
       <c r="C85" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I85" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>386</v>
       </c>
@@ -4115,152 +4160,263 @@
       <c r="C86" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I86" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>387</v>
       </c>
       <c r="B87" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>422</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>388</v>
       </c>
       <c r="B88" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>423</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>389</v>
       </c>
       <c r="B89" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
+        <v>424</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>390</v>
       </c>
       <c r="B90" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>425</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>391</v>
       </c>
       <c r="B91" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
+        <v>426</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>392</v>
       </c>
       <c r="B92" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C92" t="s">
+        <v>428</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>256</v>
       </c>
       <c r="B93" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
+        <v>429</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>393</v>
       </c>
       <c r="B94" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>430</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>394</v>
       </c>
       <c r="B95" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>431</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>395</v>
       </c>
       <c r="B96" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
+        <v>432</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>397</v>
       </c>
       <c r="B97" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C97" t="s">
+        <v>433</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>399</v>
       </c>
       <c r="B98" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>434</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>400</v>
       </c>
       <c r="B99" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>436</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>401</v>
       </c>
       <c r="B100" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
+        <v>437</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>402</v>
       </c>
       <c r="B101" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C101" t="s">
+        <v>438</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>403</v>
       </c>
       <c r="B102" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C102" t="s">
+        <v>440</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>405</v>
       </c>
       <c r="B103" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>441</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>406</v>
       </c>
       <c r="B104" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
+        <v>442</v>
+      </c>
+      <c r="I104" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>407</v>
       </c>
@@ -4268,7 +4424,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>408</v>
       </c>
@@ -4276,7 +4432,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>409</v>
       </c>
@@ -4284,7 +4440,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>410</v>
       </c>
@@ -4292,7 +4448,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>412</v>
       </c>
@@ -4300,7 +4456,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>413</v>
       </c>
@@ -4308,7 +4464,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>414</v>
       </c>
@@ -4316,7 +4472,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>415</v>
       </c>
@@ -4362,150 +4518,6 @@
       </c>
       <c r="B117" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>422</v>
-      </c>
-      <c r="B118" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>423</v>
-      </c>
-      <c r="B119" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>424</v>
-      </c>
-      <c r="B120" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>425</v>
-      </c>
-      <c r="B121" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>426</v>
-      </c>
-      <c r="B122" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>428</v>
-      </c>
-      <c r="B123" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>429</v>
-      </c>
-      <c r="B124" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>430</v>
-      </c>
-      <c r="B125" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>431</v>
-      </c>
-      <c r="B126" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>432</v>
-      </c>
-      <c r="B127" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>433</v>
-      </c>
-      <c r="B128" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>434</v>
-      </c>
-      <c r="B129" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>436</v>
-      </c>
-      <c r="B130" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>437</v>
-      </c>
-      <c r="B131" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>438</v>
-      </c>
-      <c r="B132" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>440</v>
-      </c>
-      <c r="B133" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>441</v>
-      </c>
-      <c r="B134" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>442</v>
-      </c>
-      <c r="B135" t="s">
-        <v>442</v>
       </c>
     </row>
   </sheetData>
